--- a/Lists.xlsx
+++ b/Lists.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stumpers\PIRSA\QDO_Rev_2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stumpers\PIRSA\QDO_Rev_17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,17 +13,21 @@
   </bookViews>
   <sheets>
     <sheet name="Trucks" sheetId="1" r:id="rId1"/>
-    <sheet name="Importers" sheetId="2" r:id="rId2"/>
-    <sheet name="Exporters" sheetId="3" r:id="rId3"/>
+    <sheet name="Exporters" sheetId="3" r:id="rId2"/>
+    <sheet name="Importers" sheetId="5" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Importers!$B$3:$J$90</definedName>
     <definedName name="_xlcn.WorksheetConnection_QDO_Rev_17.xlsmtblExporters" hidden="1">[1]!tblExporters[#Data]</definedName>
     <definedName name="_xlcn.WorksheetConnection_QDO_Rev_17.xlsmtblTrucks" hidden="1">[1]!tblTrucks[#Data]</definedName>
-    <definedName name="tblExporters" localSheetId="2" hidden="1">Exporters!$B$2:$F$136</definedName>
-    <definedName name="tblExporters" localSheetId="1" hidden="1">Importers!$B$2:$F$136</definedName>
+    <definedName name="DriverName">[1]DOrder!$M$51</definedName>
+    <definedName name="Exporters">[1]!tblExporters[TradingName]</definedName>
+    <definedName name="Importers">Importers!$B$4:$B$172</definedName>
+    <definedName name="SaveFlag">[1]Data!#REF!</definedName>
+    <definedName name="tblExporters" localSheetId="1" hidden="1">Exporters!$B$2:$F$136</definedName>
     <definedName name="tblTrucks" localSheetId="0" hidden="1">Trucks!$B$2:$J$103</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -45,7 +49,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="ModelConnection_tblExporters" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" saveData="1">
+  <connection id="1" keepAlive="1" name="ModelConnection_tblExporters1" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" saveData="1">
     <dbPr connection="Data Model Connection" command="tblExporters" commandType="3"/>
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
@@ -53,15 +57,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" keepAlive="1" name="ModelConnection_tblExporters1" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" saveData="1">
-    <dbPr connection="Data Model Connection" command="tblExporters" commandType="3"/>
-    <extLst>
-      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
-        <x15:connection id="" model="1"/>
-      </ext>
-    </extLst>
-  </connection>
-  <connection id="3" keepAlive="1" name="ModelConnection_tblTrucks" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" saveData="1">
+  <connection id="2" keepAlive="1" name="ModelConnection_tblTrucks" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" saveData="1">
     <dbPr connection="Data Model Connection" command="tblTrucks" commandType="3"/>
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
@@ -69,7 +65,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="4" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
+  <connection id="3" keepAlive="1" name="ThisWorkbookDataModel" description="Data Model" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -78,7 +74,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="5" name="WorksheetConnection_QDO_Rev_17.xlsm!tblExporters" type="102" refreshedVersion="5" minRefreshableVersion="5">
+  <connection id="4" name="WorksheetConnection_QDO_Rev_17.xlsm!tblExporters" type="102" refreshedVersion="5" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="tblExporters-ae416341-3ef0-4436-b915-d8be87d5753d" autoDelete="1">
@@ -87,7 +83,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="6" name="WorksheetConnection_QDO_Rev_17.xlsm!tblTrucks" type="102" refreshedVersion="5" minRefreshableVersion="5">
+  <connection id="5" name="WorksheetConnection_QDO_Rev_17.xlsm!tblTrucks" type="102" refreshedVersion="5" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="tblTrucks-501d12a3-1afb-4c46-a531-5a2af67c5ae1" autoDelete="1">
@@ -100,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="2064">
   <si>
     <t>BUSINESS</t>
   </si>
@@ -3674,13 +3670,2638 @@
   </si>
   <si>
     <t>Wringe and Quick, 1454 Upper Capel Rd, Kirup</t>
+  </si>
+  <si>
+    <t>gtsfarms@bigpind.com</t>
+  </si>
+  <si>
+    <t>08 8260 1247</t>
+  </si>
+  <si>
+    <t>08 8260 1747</t>
+  </si>
+  <si>
+    <t>Store 37 Apml Diagonal Road</t>
+  </si>
+  <si>
+    <t>Zzz Alesandro Zizzo</t>
+  </si>
+  <si>
+    <t>admin@zerella.com.au</t>
+  </si>
+  <si>
+    <t>08 8277 7004</t>
+  </si>
+  <si>
+    <t>08 8374 2877</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Po Box 350</t>
+  </si>
+  <si>
+    <t>Zz Smokemart - Castle Plaza</t>
+  </si>
+  <si>
+    <t>dstockton@bigpond.com</t>
+  </si>
+  <si>
+    <t>83402082</t>
+  </si>
+  <si>
+    <t>0418 849061</t>
+  </si>
+  <si>
+    <t>98 Torrens Rd</t>
+  </si>
+  <si>
+    <t>Zz Mcn Vegetable Wholesalers</t>
+  </si>
+  <si>
+    <t>petermisopapas@mitologroup.com.au</t>
+  </si>
+  <si>
+    <t>8595 8111</t>
+  </si>
+  <si>
+    <t>8595 8000</t>
+  </si>
+  <si>
+    <t>Po Box 808</t>
+  </si>
+  <si>
+    <t>Zz Kangara Foods Pty Ltd</t>
+  </si>
+  <si>
+    <t>plants@airnet.com.au</t>
+  </si>
+  <si>
+    <t>08 8182 5066</t>
+  </si>
+  <si>
+    <t>08 8258 5198</t>
+  </si>
+  <si>
+    <t>26 Catalina Avenue</t>
+  </si>
+  <si>
+    <t>World Asian Grocery Pty Ltd</t>
+  </si>
+  <si>
+    <t>woodie@wildsalad.com</t>
+  </si>
+  <si>
+    <t>08 8206 5699</t>
+  </si>
+  <si>
+    <t>08 8206 5660</t>
+  </si>
+  <si>
+    <t>Po Box 2332</t>
+  </si>
+  <si>
+    <t>Woolworths Limited</t>
+  </si>
+  <si>
+    <t>sales@cityfruit.com.au</t>
+  </si>
+  <si>
+    <t>08 8349 4896</t>
+  </si>
+  <si>
+    <t>08 8349 4895</t>
+  </si>
+  <si>
+    <t>Store 17, Apml, Diagonal Road</t>
+  </si>
+  <si>
+    <t>William Allen, Donato Ruggerio &amp; Kathy Ruggerio</t>
+  </si>
+  <si>
+    <t>vonow.helen@saugov.sa.gov.au</t>
+  </si>
+  <si>
+    <t>8349 4896</t>
+  </si>
+  <si>
+    <t>8349 4895</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>William (Woodie) Allen</t>
+  </si>
+  <si>
+    <t>Pooraka</t>
+  </si>
+  <si>
+    <t>Store 17, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Wild Salad Pty Ltd</t>
+  </si>
+  <si>
+    <t>joe@scalzi.com.au</t>
+  </si>
+  <si>
+    <t>8380 9465</t>
+  </si>
+  <si>
+    <t>8380 9860</t>
+  </si>
+  <si>
+    <t>Po Box 1016,</t>
+  </si>
+  <si>
+    <t>Virginia Packing Shed Sa Pty Ltd</t>
+  </si>
+  <si>
+    <t>83809767</t>
+  </si>
+  <si>
+    <t>08 83809560</t>
+  </si>
+  <si>
+    <t>Po Box 447</t>
+  </si>
+  <si>
+    <t>Virginia Nursery Pty Ltd</t>
+  </si>
+  <si>
+    <t>nrusso7@bigpond.com</t>
+  </si>
+  <si>
+    <t>8280 6293</t>
+  </si>
+  <si>
+    <t>Minh Son Ly &amp; Minh Vu Ly and Thi Phuong Dung Huynh</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>PO Box 330</t>
+  </si>
+  <si>
+    <t>V.S.L. Produce</t>
+  </si>
+  <si>
+    <t>joe@choicefruitandveg.com.au</t>
+  </si>
+  <si>
+    <t>8541 2976</t>
+  </si>
+  <si>
+    <t>Vasilios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasilios Kambisios </t>
+  </si>
+  <si>
+    <t>WAIKERIE</t>
+  </si>
+  <si>
+    <t>PO Box 453</t>
+  </si>
+  <si>
+    <t>V &amp; P Kambisios</t>
+  </si>
+  <si>
+    <t>ian.dry@csiro.au</t>
+  </si>
+  <si>
+    <t>8280 8143</t>
+  </si>
+  <si>
+    <t>Vincenzo &amp; Giuseppa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincenzo &amp; Giuseppa Pellicone </t>
+  </si>
+  <si>
+    <t>WATERLOO CNR</t>
+  </si>
+  <si>
+    <t>Lot A/B Pt Wakefield Road</t>
+  </si>
+  <si>
+    <t>V &amp; G Pellicone</t>
+  </si>
+  <si>
+    <t>adelaide@exofarms.com.au</t>
+  </si>
+  <si>
+    <t>8349 6141</t>
+  </si>
+  <si>
+    <t>8260 4188</t>
+  </si>
+  <si>
+    <t>Store 45, Apml, Diagonal Road</t>
+  </si>
+  <si>
+    <t>V &amp; A Stamatopoulos Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>8349 8922</t>
+  </si>
+  <si>
+    <t>8349 8933</t>
+  </si>
+  <si>
+    <t>Sirs</t>
+  </si>
+  <si>
+    <t>Nat Fazzari, Ross Virgara, Pas Foti</t>
+  </si>
+  <si>
+    <t>Store 57, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>United Fresh</t>
+  </si>
+  <si>
+    <t>admin@fruitorama.com.au</t>
+  </si>
+  <si>
+    <t>8280 6688</t>
+  </si>
+  <si>
+    <t>8280 8223</t>
+  </si>
+  <si>
+    <t>Lot 16 Robinson Road,</t>
+  </si>
+  <si>
+    <t>Tth Do Pty Ltd</t>
+  </si>
+  <si>
+    <t>Lam</t>
+  </si>
+  <si>
+    <t>Mr Lam Giang</t>
+  </si>
+  <si>
+    <t>16 Robinson Road</t>
+  </si>
+  <si>
+    <t>TTH Do Produce</t>
+  </si>
+  <si>
+    <t>PALMABros@bigpond.com</t>
+  </si>
+  <si>
+    <t>8 380 9318</t>
+  </si>
+  <si>
+    <t>8 380 9532</t>
+  </si>
+  <si>
+    <t>Po Box 735</t>
+  </si>
+  <si>
+    <t>Ttd Le P/L</t>
+  </si>
+  <si>
+    <t>Jammaltrading@optusnet.com.au</t>
+  </si>
+  <si>
+    <t>8359 4334</t>
+  </si>
+  <si>
+    <t>Dinh Lang Nguyen and Thi Dai Trang Le</t>
+  </si>
+  <si>
+    <t>PO Box 735</t>
+  </si>
+  <si>
+    <t>TTD Le</t>
+  </si>
+  <si>
+    <t>gracemerenda@iprimus.com.au</t>
+  </si>
+  <si>
+    <t>8380 9704</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Paul Yafantidis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Box 661 </t>
+  </si>
+  <si>
+    <t>Tsing Cherry Tomatoes and Veggies On The Run</t>
+  </si>
+  <si>
+    <t>raff@zizzo.info</t>
+  </si>
+  <si>
+    <t>81824115 /silent</t>
+  </si>
+  <si>
+    <t>Box 197</t>
+  </si>
+  <si>
+    <t>Topgun Produce Wholesalers</t>
+  </si>
+  <si>
+    <t>8380 9508</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Tony Huynh</t>
+  </si>
+  <si>
+    <t>PO Box 394</t>
+  </si>
+  <si>
+    <t>Tony and Brothers Fresh Produce</t>
+  </si>
+  <si>
+    <t>cobbledickbros@bigpond.com.au</t>
+  </si>
+  <si>
+    <t>8260 1247</t>
+  </si>
+  <si>
+    <t>8260 1747</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Alex Zizzo</t>
+  </si>
+  <si>
+    <t>Store 37, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Tompak Produce</t>
+  </si>
+  <si>
+    <t>ashtrac@bigpond.net.au</t>
+  </si>
+  <si>
+    <t>08 83808367</t>
+  </si>
+  <si>
+    <t>08 83809521</t>
+  </si>
+  <si>
+    <t>Po Box 624</t>
+  </si>
+  <si>
+    <t>Tmh Corporations Pty Ltd</t>
+  </si>
+  <si>
+    <t>admin@flavells.com.au</t>
+  </si>
+  <si>
+    <t>8280 9720</t>
+  </si>
+  <si>
+    <t>8280 9722</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Daniele De Ieso</t>
+  </si>
+  <si>
+    <t>NEWTON</t>
+  </si>
+  <si>
+    <t>28 Stradbroke Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorndon Park Produce </t>
+  </si>
+  <si>
+    <t>8349 4237</t>
+  </si>
+  <si>
+    <t>8349 4038</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Mr Jeff Kimber</t>
+  </si>
+  <si>
+    <t>Store 27, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>The Mushroom Centre</t>
+  </si>
+  <si>
+    <t>8260 4364</t>
+  </si>
+  <si>
+    <t>8262 5510</t>
+  </si>
+  <si>
+    <t>Juliet</t>
+  </si>
+  <si>
+    <t>Juliet Giangregorio</t>
+  </si>
+  <si>
+    <t>Store 18, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>The Lettuce Centre</t>
+  </si>
+  <si>
+    <t>cannizzaro@senet.com.au</t>
+  </si>
+  <si>
+    <t>Dino</t>
+  </si>
+  <si>
+    <t>Dino Musolino</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>PO Box 1106</t>
+  </si>
+  <si>
+    <t>The Fruit &amp; Vegetables Growers Association of SA inc</t>
+  </si>
+  <si>
+    <t>afparker@bigpond.com</t>
+  </si>
+  <si>
+    <t>8349 6524</t>
+  </si>
+  <si>
+    <t>8349 6642</t>
+  </si>
+  <si>
+    <t>James Plummer &amp; Walter Gallarello</t>
+  </si>
+  <si>
+    <t>Store 51, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>The Fresh Fruit for You Produce Company</t>
+  </si>
+  <si>
+    <t>merc2@internode.on.net</t>
+  </si>
+  <si>
+    <t>8 1823 488</t>
+  </si>
+  <si>
+    <t>0418 808 118</t>
+  </si>
+  <si>
+    <t>Po Box 809 King Road</t>
+  </si>
+  <si>
+    <t>Tc Luong</t>
+  </si>
+  <si>
+    <t>cousinsprod@bigpond.com</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>8262 8779</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Charlie Luong</t>
+  </si>
+  <si>
+    <t>Store 56, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>T C Luong Pty Ltd</t>
+  </si>
+  <si>
+    <t>david@trosti.com</t>
+  </si>
+  <si>
+    <t>8349 4936</t>
+  </si>
+  <si>
+    <t>8349 7033</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>David Trosti</t>
+  </si>
+  <si>
+    <t>Store 50, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Stramare Produce</t>
+  </si>
+  <si>
+    <t>(08) 8359 7711</t>
+  </si>
+  <si>
+    <t>(08) 8359 7700</t>
+  </si>
+  <si>
+    <t>Cavan</t>
+  </si>
+  <si>
+    <t>16 Diagonal Road</t>
+  </si>
+  <si>
+    <t>Steves Organics - Wholesaler For Organic Fruit/Veg &amp; Dry Goods</t>
+  </si>
+  <si>
+    <t>tim@collinsorchards.com.au</t>
+  </si>
+  <si>
+    <t>8222 9456</t>
+  </si>
+  <si>
+    <t>8222 9392</t>
+  </si>
+  <si>
+    <t>P/O Box 2732</t>
+  </si>
+  <si>
+    <t>State Herbarium Of South Australia</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Adriana Stamatopoulos</t>
+  </si>
+  <si>
+    <t>Stores 44 &amp; 45, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Stam Fruit Supply</t>
+  </si>
+  <si>
+    <t>accounts@bache.com.au</t>
+  </si>
+  <si>
+    <t>03 5025 6492</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Terry Meredith</t>
+  </si>
+  <si>
+    <t>Vic</t>
+  </si>
+  <si>
+    <t>MILDURA</t>
+  </si>
+  <si>
+    <t>SRRS Nominees P/L &amp; Castro P/L</t>
+  </si>
+  <si>
+    <t>cagibbo@internode.on.net</t>
+  </si>
+  <si>
+    <t>08 8723 2125</t>
+  </si>
+  <si>
+    <t>08 8724 9888</t>
+  </si>
+  <si>
+    <t>80 Jubilee Highway West</t>
+  </si>
+  <si>
+    <t>Spec Enterprises Pty Ltd / Andami</t>
+  </si>
+  <si>
+    <t>rbrotolo@adam.com.au</t>
+  </si>
+  <si>
+    <t>8349 4420</t>
+  </si>
+  <si>
+    <t>8349 6503</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>George Koukos</t>
+  </si>
+  <si>
+    <t>Kent Town</t>
+  </si>
+  <si>
+    <t>C/- Eudunda Farmers Limited, SE 2, 26-30 The Parade West</t>
+  </si>
+  <si>
+    <t>Southern Fresh Produce Pty Ltd</t>
+  </si>
+  <si>
+    <t>rceravolo@bigpond.com</t>
+  </si>
+  <si>
+    <t>8390 2265</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Robert Smith</t>
+  </si>
+  <si>
+    <t>MONTACUTE</t>
+  </si>
+  <si>
+    <t>PO Box 94</t>
+  </si>
+  <si>
+    <t>Smith Gully Orchards</t>
+  </si>
+  <si>
+    <t>8349 8007</t>
+  </si>
+  <si>
+    <t>8349 4937</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Joe Sappio</t>
+  </si>
+  <si>
+    <t>Store 13, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Select Naturally</t>
+  </si>
+  <si>
+    <t>info@jarrettservices.com.au</t>
+  </si>
+  <si>
+    <t>8349 6268</t>
+  </si>
+  <si>
+    <t>8349 6899</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>Pat Scalzi</t>
+  </si>
+  <si>
+    <t>Store 48, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Scalzi Produce Pty Ltd</t>
+  </si>
+  <si>
+    <t>polverino@internode.on.net</t>
+  </si>
+  <si>
+    <t>8444 7450</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>John Pandelis</t>
+  </si>
+  <si>
+    <t>COWANDILLA</t>
+  </si>
+  <si>
+    <t>8 Blackburn Avenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA Sprouts </t>
+  </si>
+  <si>
+    <t>8349 6211</t>
+  </si>
+  <si>
+    <t>8349 6611</t>
+  </si>
+  <si>
+    <t>Carmine</t>
+  </si>
+  <si>
+    <t>Carmine Russo</t>
+  </si>
+  <si>
+    <t>Store 34, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Russo Produce Pty Ltd</t>
+  </si>
+  <si>
+    <t>hpstrans@bigpond.net.au</t>
+  </si>
+  <si>
+    <t>08 8262 5777</t>
+  </si>
+  <si>
+    <t>08 8262 4777</t>
+  </si>
+  <si>
+    <t>1/6 Mcgowan Street</t>
+  </si>
+  <si>
+    <t>Rivergold Foods Pty Ltd</t>
+  </si>
+  <si>
+    <t>8390 1499</t>
+  </si>
+  <si>
+    <t>8390 3678</t>
+  </si>
+  <si>
+    <t>Po Box 111</t>
+  </si>
+  <si>
+    <t>Ralph Ceravolo &amp; Company</t>
+  </si>
+  <si>
+    <t>adeeb@e-access.com.au</t>
+  </si>
+  <si>
+    <t>8520 2888</t>
+  </si>
+  <si>
+    <t>8349 4725</t>
+  </si>
+  <si>
+    <t>Tony Ceravolo</t>
+  </si>
+  <si>
+    <t>Ashton</t>
+  </si>
+  <si>
+    <t>PO Box 111</t>
+  </si>
+  <si>
+    <t>R Ceravolo &amp; Co Pty Ltd</t>
+  </si>
+  <si>
+    <t>nevio@kern.com.au</t>
+  </si>
+  <si>
+    <t>8349 6361</t>
+  </si>
+  <si>
+    <t>8349 5225</t>
+  </si>
+  <si>
+    <t>Cathy</t>
+  </si>
+  <si>
+    <t>Cathy Cannizzaro</t>
+  </si>
+  <si>
+    <t>Store 15, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>R Cannizzaro Pty Ltd</t>
+  </si>
+  <si>
+    <t>andrew.etherton@pacseeds.com.au</t>
+  </si>
+  <si>
+    <t>8362 6100</t>
+  </si>
+  <si>
+    <t>Raffaele and Susanna</t>
+  </si>
+  <si>
+    <t>Raffaele and Susanna Valente</t>
+  </si>
+  <si>
+    <t>MARDEN</t>
+  </si>
+  <si>
+    <t>44 Lower Portrush Road</t>
+  </si>
+  <si>
+    <t>R &amp; S Valente</t>
+  </si>
+  <si>
+    <t>ashgreen@senet.com.au</t>
+  </si>
+  <si>
+    <t>8262 6211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8349 4166 </t>
+  </si>
+  <si>
+    <t>Jutz</t>
+  </si>
+  <si>
+    <t>Jutz Riccio</t>
+  </si>
+  <si>
+    <t>Store 1, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>R &amp; B Rotolo Pty Ltd</t>
+  </si>
+  <si>
+    <t>bstockham@woolworths.com.au</t>
+  </si>
+  <si>
+    <t>8349 4977</t>
+  </si>
+  <si>
+    <t>8349 5065</t>
+  </si>
+  <si>
+    <t>Jon &amp; Con Lioulios</t>
+  </si>
+  <si>
+    <t>Store 53, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Quality Lines</t>
+  </si>
+  <si>
+    <t>james@lenswoodcoop.com.au</t>
+  </si>
+  <si>
+    <t>08 8524 3706</t>
+  </si>
+  <si>
+    <t>08 8524 3677</t>
+  </si>
+  <si>
+    <t>32 Pederick Road</t>
+  </si>
+  <si>
+    <t>Pyramid Organic Produce</t>
+  </si>
+  <si>
+    <t>nippy@hotkey.net.au</t>
+  </si>
+  <si>
+    <t>8380 9330</t>
+  </si>
+  <si>
+    <t>8346 8391</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Jim Strangio</t>
+  </si>
+  <si>
+    <t>CROYDON PARK</t>
+  </si>
+  <si>
+    <t>14 Mersey Street</t>
+  </si>
+  <si>
+    <t>Produce Carton and Bin Supplies</t>
+  </si>
+  <si>
+    <t>andami-jh@bigpond.com</t>
+  </si>
+  <si>
+    <t>08 8380 8609</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Ashley Schrader, Packing Manager</t>
+  </si>
+  <si>
+    <t>PO Box 951</t>
+  </si>
+  <si>
+    <t>P'Petual Holdings</t>
+  </si>
+  <si>
+    <t>pyramidorganics@baonline.com.au</t>
+  </si>
+  <si>
+    <t>8284 7267</t>
+  </si>
+  <si>
+    <t>8349 5909</t>
+  </si>
+  <si>
+    <t>Paul Pogas</t>
+  </si>
+  <si>
+    <t>Store 42, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Pogas Produce</t>
+  </si>
+  <si>
+    <t>Does not have one</t>
+  </si>
+  <si>
+    <t>08 83898547</t>
+  </si>
+  <si>
+    <t>08 83898318</t>
+  </si>
+  <si>
+    <t>Plummer Road</t>
+  </si>
+  <si>
+    <t>Plummers Border Valley Orchards</t>
+  </si>
+  <si>
+    <t>genmgr@rivergoldfoods.com.au</t>
+  </si>
+  <si>
+    <t>8280 5577</t>
+  </si>
+  <si>
+    <t>8280 5555</t>
+  </si>
+  <si>
+    <t>Claudio &amp; Larry</t>
+  </si>
+  <si>
+    <t>Claudio and Larry Piscioneri</t>
+  </si>
+  <si>
+    <t>PO Box 928</t>
+  </si>
+  <si>
+    <t>Piscioneri Bros</t>
+  </si>
+  <si>
+    <t>lesvos@netconnect.com.au</t>
+  </si>
+  <si>
+    <t>02 688 92490</t>
+  </si>
+  <si>
+    <t>02 688 92299</t>
+  </si>
+  <si>
+    <t>113 Billabong Road</t>
+  </si>
+  <si>
+    <t>Pioneer Hi-Bred Australia Pty Ltd</t>
+  </si>
+  <si>
+    <t>arthursinger@mercorella.com.au</t>
+  </si>
+  <si>
+    <t>8260 7789</t>
+  </si>
+  <si>
+    <t>8260 3866</t>
+  </si>
+  <si>
+    <t>Paul Palmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA </t>
+  </si>
+  <si>
+    <t>Adelaide Produce Markets, Burma Road</t>
+  </si>
+  <si>
+    <t>Palmer Produce Management P/L</t>
+  </si>
+  <si>
+    <t>8349 7118</t>
+  </si>
+  <si>
+    <t>8349 7114</t>
+  </si>
+  <si>
+    <t>Antonio, Biaggio &amp; Pellegrino</t>
+  </si>
+  <si>
+    <t>Store 22, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Palma Bros</t>
+  </si>
+  <si>
+    <t>paul.maione@chiquita.com.au</t>
+  </si>
+  <si>
+    <t>08 8365 4522</t>
+  </si>
+  <si>
+    <t>08 8365 7622</t>
+  </si>
+  <si>
+    <t>13 Meredith Street</t>
+  </si>
+  <si>
+    <t>Pacillo Fruit &amp; Veg</t>
+  </si>
+  <si>
+    <t>bruce@stevesorganics.com.au</t>
+  </si>
+  <si>
+    <t>08 8256 0946</t>
+  </si>
+  <si>
+    <t>14/95 Womma Road</t>
+  </si>
+  <si>
+    <t>Pacific Seeds Pty Ltd</t>
+  </si>
+  <si>
+    <t>gtproduce@senet.com.au</t>
+  </si>
+  <si>
+    <t>8337 2380</t>
+  </si>
+  <si>
+    <t>8359 4555</t>
+  </si>
+  <si>
+    <t>Joe Agostino</t>
+  </si>
+  <si>
+    <t>Store 10, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Ozzy Fresh</t>
+  </si>
+  <si>
+    <t>hoangduyly@bigpond.com</t>
+  </si>
+  <si>
+    <t>8280 9125</t>
+  </si>
+  <si>
+    <t>John Tran</t>
+  </si>
+  <si>
+    <t>43 St Kilda Road</t>
+  </si>
+  <si>
+    <t>Oanh Nguyen Fresh Produce</t>
+  </si>
+  <si>
+    <t>gavinm@joysons.com.au</t>
+  </si>
+  <si>
+    <t>8389 5557</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Brian Mason</t>
+  </si>
+  <si>
+    <t>LOBETHAL</t>
+  </si>
+  <si>
+    <t>13 Merino Court</t>
+  </si>
+  <si>
+    <t>Nerrigundah</t>
+  </si>
+  <si>
+    <t>kathy@vpssa.com.au</t>
+  </si>
+  <si>
+    <t>08 8580 8351</t>
+  </si>
+  <si>
+    <t>08 8580 8260</t>
+  </si>
+  <si>
+    <t>Po Box 296</t>
+  </si>
+  <si>
+    <t>National Foods</t>
+  </si>
+  <si>
+    <t>drurysorchard@bigpond.com</t>
+  </si>
+  <si>
+    <t>8349 5777</t>
+  </si>
+  <si>
+    <t>Po Box 1106</t>
+  </si>
+  <si>
+    <t>Musolino Hi Tech Hydroponics; Hi Tech Processors;  Farmers Choice</t>
+  </si>
+  <si>
+    <t>8 282 9029</t>
+  </si>
+  <si>
+    <t>08 8282 9000</t>
+  </si>
+  <si>
+    <t>Po Box 520</t>
+  </si>
+  <si>
+    <t>Mitolo Group Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>gregpickert@hotkey.net.au</t>
+  </si>
+  <si>
+    <t>8349 5014</t>
+  </si>
+  <si>
+    <t>8349 5056</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Grace Merenda</t>
+  </si>
+  <si>
+    <t>Store 58, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Merenda Wholesalers Adelaide</t>
+  </si>
+  <si>
+    <t>karryn.roupas@costaexchange.com.au</t>
+  </si>
+  <si>
+    <t>8349 4524</t>
+  </si>
+  <si>
+    <t>8349 5168</t>
+  </si>
+  <si>
+    <t>Christine</t>
+  </si>
+  <si>
+    <t>Christine Mercurio</t>
+  </si>
+  <si>
+    <t>Store 14, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Mercurio Bros</t>
+  </si>
+  <si>
+    <t>8359 7366</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Dean Maddock</t>
+  </si>
+  <si>
+    <t>3B Newcastle Cres</t>
+  </si>
+  <si>
+    <t>Market Bag Supply</t>
+  </si>
+  <si>
+    <t>vegifresh@iprimus.com.au</t>
+  </si>
+  <si>
+    <t>8349 7065</t>
+  </si>
+  <si>
+    <t>8349 4407</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Mr Mark Brougham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARKHOLME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Box 287 </t>
+  </si>
+  <si>
+    <t>M &amp; C Wholesale Fruit and Veg Supplies</t>
+  </si>
+  <si>
+    <t>robertplummersbvo.com.au</t>
+  </si>
+  <si>
+    <t>8520 2204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank  </t>
+  </si>
+  <si>
+    <t>Frank Maiolo</t>
+  </si>
+  <si>
+    <t>TWO WELLS</t>
+  </si>
+  <si>
+    <t>13-15 Dawkins Road</t>
+  </si>
+  <si>
+    <t>M &amp; B Flowers</t>
+  </si>
+  <si>
+    <t>arharidis_em@bigpond.com</t>
+  </si>
+  <si>
+    <t>08 8280 8848</t>
+  </si>
+  <si>
+    <t>08 8280 8150</t>
+  </si>
+  <si>
+    <t>Po Box 27</t>
+  </si>
+  <si>
+    <t>M &amp; A Mercorella Pty Ltd</t>
+  </si>
+  <si>
+    <t>8541 0205</t>
+  </si>
+  <si>
+    <t>8541 0200</t>
+  </si>
+  <si>
+    <t>Po Box 358</t>
+  </si>
+  <si>
+    <t>Lochert Bros P/L</t>
+  </si>
+  <si>
+    <t>kquan@senet.com.au</t>
+  </si>
+  <si>
+    <t>8281 3889</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Leon Glouftsis</t>
+  </si>
+  <si>
+    <t>PARALOWIE</t>
+  </si>
+  <si>
+    <t>35 Caulfield Cresent</t>
+  </si>
+  <si>
+    <t>Leon and Marlene Glouftsis</t>
+  </si>
+  <si>
+    <t>08 8389 8570</t>
+  </si>
+  <si>
+    <t>08 8389 8300</t>
+  </si>
+  <si>
+    <t>Coldstore Road</t>
+  </si>
+  <si>
+    <t>Lenswood Cold Stores C0-Operative Society  Limited</t>
+  </si>
+  <si>
+    <t>lamgiang@bigpond.com</t>
+  </si>
+  <si>
+    <t>08 8349 4748</t>
+  </si>
+  <si>
+    <t>93 Royal Avenue</t>
+  </si>
+  <si>
+    <t>Lenhan Fruit &amp; Veg</t>
+  </si>
+  <si>
+    <t>93 Royal Ave</t>
+  </si>
+  <si>
+    <t>Lenhan</t>
+  </si>
+  <si>
+    <t>TopgunJA@bigpond.com</t>
+  </si>
+  <si>
+    <t>08 8380 8686</t>
+  </si>
+  <si>
+    <t>08 8380 8667</t>
+  </si>
+  <si>
+    <t>Po Box 683</t>
+  </si>
+  <si>
+    <t>Leconti Farms (Sa)</t>
+  </si>
+  <si>
+    <t>8284 9090</t>
+  </si>
+  <si>
+    <t>8252 0581</t>
+  </si>
+  <si>
+    <t>Phan Thi Le (Holly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALISBURY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Box 991 </t>
+  </si>
+  <si>
+    <t>Le Vivn Enterprise</t>
+  </si>
+  <si>
+    <t>8349 5789</t>
+  </si>
+  <si>
+    <t>8349 5022</t>
+  </si>
+  <si>
+    <t>Store C31, Apml, Diagonal Road</t>
+  </si>
+  <si>
+    <t>Lamanna Group (Adelaide)</t>
+  </si>
+  <si>
+    <t>John McArthur</t>
+  </si>
+  <si>
+    <t>Store 31, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>LaManna Bananas (Adelaide) Pty Ltd</t>
+  </si>
+  <si>
+    <t>8380 9219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8380 9219   </t>
+  </si>
+  <si>
+    <t>Dimitrios &amp; Con</t>
+  </si>
+  <si>
+    <t>Dimitrios and Con Laftsis</t>
+  </si>
+  <si>
+    <t>PO Box 736</t>
+  </si>
+  <si>
+    <t>Laftsis Fresh Produce</t>
+  </si>
+  <si>
+    <t>08 8583 9388</t>
+  </si>
+  <si>
+    <t>08 8583 9251</t>
+  </si>
+  <si>
+    <t>Po Box 15</t>
+  </si>
+  <si>
+    <t>Knispel Bros Pty Ltd</t>
+  </si>
+  <si>
+    <t>8260 6089</t>
+  </si>
+  <si>
+    <t>8359 0508</t>
+  </si>
+  <si>
+    <t>Kenny</t>
+  </si>
+  <si>
+    <t>Kenny Roberts</t>
+  </si>
+  <si>
+    <t>Store 5, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Kenny's Fruit Veg Wholesaler</t>
+  </si>
+  <si>
+    <t>8349 8139</t>
+  </si>
+  <si>
+    <t>8349 9993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashley </t>
+  </si>
+  <si>
+    <t>Ashley Green</t>
+  </si>
+  <si>
+    <t>Store 9, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>K R Filsells &amp; Sons / Hillview Fruits Nominees Pty Ltd</t>
+  </si>
+  <si>
+    <t>8380 9740</t>
+  </si>
+  <si>
+    <t>8380 9246</t>
+  </si>
+  <si>
+    <t>Po Box 605</t>
+  </si>
+  <si>
+    <t>K Quan Nominees  Pty Ltd Att: Loan Tran</t>
+  </si>
+  <si>
+    <t>8389 8564</t>
+  </si>
+  <si>
+    <t>8389 8506</t>
+  </si>
+  <si>
+    <t>C/O Post Office</t>
+  </si>
+  <si>
+    <t>Joyson Orchards Pty Ltd T/A Joyson Orchards Trust</t>
+  </si>
+  <si>
+    <t>08 8367 6322</t>
+  </si>
+  <si>
+    <t>08 8367 6335</t>
+  </si>
+  <si>
+    <t>Po Box 153</t>
+  </si>
+  <si>
+    <t>Jarrett Services Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>8349 6832</t>
+  </si>
+  <si>
+    <t>8349 4793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sami </t>
+  </si>
+  <si>
+    <t>Sami al Jammal</t>
+  </si>
+  <si>
+    <t>Store 2, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Jammal Produce</t>
+  </si>
+  <si>
+    <t>08 8349 6524</t>
+  </si>
+  <si>
+    <t>08 8349 6642</t>
+  </si>
+  <si>
+    <t>Store E51, Adelaide Produce Market, Diagonal Road</t>
+  </si>
+  <si>
+    <t>8280 8725</t>
+  </si>
+  <si>
+    <t>8280 8325</t>
+  </si>
+  <si>
+    <t>John Balestrin</t>
+  </si>
+  <si>
+    <t>ATHELSTONE</t>
+  </si>
+  <si>
+    <t>20 Clement Road</t>
+  </si>
+  <si>
+    <t>J &amp; P Balestrin</t>
+  </si>
+  <si>
+    <t>8241 5010</t>
+  </si>
+  <si>
+    <t>8277 8653</t>
+  </si>
+  <si>
+    <t>Jim &amp; Chris</t>
+  </si>
+  <si>
+    <t>Jim &amp; Chris Kafantaris</t>
+  </si>
+  <si>
+    <t>Ingle Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingle Farm Fruit Market, Shop 17 &amp; 18, </t>
+  </si>
+  <si>
+    <t>J &amp; C Kafantaris</t>
+  </si>
+  <si>
+    <t>8349 7129</t>
+  </si>
+  <si>
+    <t>8262 7002</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Frank Bueti</t>
+  </si>
+  <si>
+    <t>Warehouse L, Adelaide Produce Markets, Burma Rd</t>
+  </si>
+  <si>
+    <t>Independent Produce Suppliers</t>
+  </si>
+  <si>
+    <t>8349 5760</t>
+  </si>
+  <si>
+    <t>8349 4454</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Peter Brinkworth</t>
+  </si>
+  <si>
+    <t>Store 28, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Horsfalls Potatoes</t>
+  </si>
+  <si>
+    <t>08 8349 8139</t>
+  </si>
+  <si>
+    <t>08 8349 9993</t>
+  </si>
+  <si>
+    <t>Store 9 - Apml, Diagonal Road</t>
+  </si>
+  <si>
+    <t>Hillview Fresh Pty Ltd</t>
+  </si>
+  <si>
+    <t>8389 8199</t>
+  </si>
+  <si>
+    <t>8389 8267</t>
+  </si>
+  <si>
+    <t>Brian &amp; Craig</t>
+  </si>
+  <si>
+    <t>Brian Harris and Craig Harris</t>
+  </si>
+  <si>
+    <t>LENSWOOD</t>
+  </si>
+  <si>
+    <t>Harris Road</t>
+  </si>
+  <si>
+    <t>Harrisville Orchards</t>
+  </si>
+  <si>
+    <t>8349 4478</t>
+  </si>
+  <si>
+    <t>8349 6911</t>
+  </si>
+  <si>
+    <t>Geoff</t>
+  </si>
+  <si>
+    <t>Geoff Turley</t>
+  </si>
+  <si>
+    <t>Store 23, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>GT Produce</t>
+  </si>
+  <si>
+    <t>8262 5933</t>
+  </si>
+  <si>
+    <t>8262 5955</t>
+  </si>
+  <si>
+    <t>Guido</t>
+  </si>
+  <si>
+    <t>Guido Manzueto</t>
+  </si>
+  <si>
+    <t>Warehouse J, Adelaide Produce Markets, Diagonal Road</t>
+  </si>
+  <si>
+    <t>Go Fresh Produce</t>
+  </si>
+  <si>
+    <t>8380 5165</t>
+  </si>
+  <si>
+    <t>8380 5164</t>
+  </si>
+  <si>
+    <t>Melvyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melvyn Gilmour </t>
+  </si>
+  <si>
+    <t>PARACOMBE</t>
+  </si>
+  <si>
+    <t>RSD520 Paracombe Road</t>
+  </si>
+  <si>
+    <t>Gilmours Orchards</t>
+  </si>
+  <si>
+    <t>08 8268 3678</t>
+  </si>
+  <si>
+    <t>08 8345 4066</t>
+  </si>
+  <si>
+    <t>17June Street</t>
+  </si>
+  <si>
+    <t>Giang And Giang Pty Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8349 4926 </t>
+  </si>
+  <si>
+    <t>8349 4559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George </t>
+  </si>
+  <si>
+    <t>George Polverino</t>
+  </si>
+  <si>
+    <t>Store 11, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>George Polverino Pty Ltd</t>
+  </si>
+  <si>
+    <t>8349 4349</t>
+  </si>
+  <si>
+    <t>8349 4311</t>
+  </si>
+  <si>
+    <t>Store 6,7,8, Apml, Diagonal Road</t>
+  </si>
+  <si>
+    <t>George Mercurio Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>08 8337 1190</t>
+  </si>
+  <si>
+    <t>08 8337 8138</t>
+  </si>
+  <si>
+    <t>27 Silks Road</t>
+  </si>
+  <si>
+    <t>George Belperio</t>
+  </si>
+  <si>
+    <t>Store 46, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Garden Fresh / Scalzi Produce</t>
+  </si>
+  <si>
+    <t>8260 1555</t>
+  </si>
+  <si>
+    <t>8260 1755</t>
+  </si>
+  <si>
+    <t>Store 38, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>G Zizzo &amp; Son</t>
+  </si>
+  <si>
+    <t>08 8380 9871</t>
+  </si>
+  <si>
+    <t>08 8380 9123</t>
+  </si>
+  <si>
+    <t>Po Box 34</t>
+  </si>
+  <si>
+    <t>G Trimboli &amp; Sons Pty Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packing shed 8380 9971 </t>
+  </si>
+  <si>
+    <t>Gavin &amp; Samantha</t>
+  </si>
+  <si>
+    <t>Gavin and Samantha Coulls</t>
+  </si>
+  <si>
+    <t>G J Coulls Fresh Produce</t>
+  </si>
+  <si>
+    <t>8349 6055</t>
+  </si>
+  <si>
+    <t>Tony Raschella</t>
+  </si>
+  <si>
+    <t>Store 30, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Fruitorama</t>
+  </si>
+  <si>
+    <t>08 8725 1782</t>
+  </si>
+  <si>
+    <t>08 8725 3816</t>
+  </si>
+  <si>
+    <t>C/- Gambier West Post Office</t>
+  </si>
+  <si>
+    <t>Freshace Pty Ltd</t>
+  </si>
+  <si>
+    <t>8349 7969</t>
+  </si>
+  <si>
+    <t>8349 5540</t>
+  </si>
+  <si>
+    <t>Nick Scopelitis / David Simpson</t>
+  </si>
+  <si>
+    <t>Store 21, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Fresh Pick</t>
+  </si>
+  <si>
+    <t>8349 5274</t>
+  </si>
+  <si>
+    <t>8349 5044</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Adam Gallarello</t>
+  </si>
+  <si>
+    <t>Store 25 &amp; 26, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Fresh Exchange Pty Ltd</t>
+  </si>
+  <si>
+    <t>8349 5520</t>
+  </si>
+  <si>
+    <t>8349 5656</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steve Buttignol, MD</t>
+  </si>
+  <si>
+    <t>C/- Warehouse H1, Adelaide Produce Markets Burma Road</t>
+  </si>
+  <si>
+    <t>Four Seasons Fresh Produce</t>
+  </si>
+  <si>
+    <t>8380 9247</t>
+  </si>
+  <si>
+    <t>Robert &amp; Susan</t>
+  </si>
+  <si>
+    <t>Robert and Susan Foster</t>
+  </si>
+  <si>
+    <t>PO Box 623</t>
+  </si>
+  <si>
+    <t>Fosters Herbs</t>
+  </si>
+  <si>
+    <t>8349 4238</t>
+  </si>
+  <si>
+    <t>8389 8519</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Greg James</t>
+  </si>
+  <si>
+    <t>Store 43, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Flavell's Fruit Sales</t>
+  </si>
+  <si>
+    <t>Glyndon</t>
+  </si>
+  <si>
+    <t>Glyndon Flavell</t>
+  </si>
+  <si>
+    <t>Forest Range</t>
+  </si>
+  <si>
+    <t>PO Box 171</t>
+  </si>
+  <si>
+    <t>Flavell Fruit Sales Pty Ltd</t>
+  </si>
+  <si>
+    <t>8337 2329</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fred Balestrin </t>
+  </si>
+  <si>
+    <t>ROSTREVOR</t>
+  </si>
+  <si>
+    <t>4 Koonunga Avenue</t>
+  </si>
+  <si>
+    <t>FC and JM Balestrin</t>
+  </si>
+  <si>
+    <t>8359 4360</t>
+  </si>
+  <si>
+    <t>8359 6123</t>
+  </si>
+  <si>
+    <t>Store 19 &amp; 20, Apml, Diagonal Road</t>
+  </si>
+  <si>
+    <t>Farmhouse Fresh S.A.</t>
+  </si>
+  <si>
+    <t>8280 9957</t>
+  </si>
+  <si>
+    <t>Frank &amp; Vince</t>
+  </si>
+  <si>
+    <t>Frank Bagnato and Vince Bagnato</t>
+  </si>
+  <si>
+    <t>PO Box 998</t>
+  </si>
+  <si>
+    <t>F &amp; J Bagnato</t>
+  </si>
+  <si>
+    <t>8260 4511</t>
+  </si>
+  <si>
+    <t>8260 4500</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>Mathew Hughes</t>
+  </si>
+  <si>
+    <t>Po Box 74</t>
+  </si>
+  <si>
+    <t>Eco- Farms Pty Limited</t>
+  </si>
+  <si>
+    <t>8337 1561</t>
+  </si>
+  <si>
+    <t>Eric &amp; Sonia</t>
+  </si>
+  <si>
+    <t>Eric and Sonia Parletta</t>
+  </si>
+  <si>
+    <t>30 Antares Way</t>
+  </si>
+  <si>
+    <t>E &amp; SV Parletta</t>
+  </si>
+  <si>
+    <t>8258 8150</t>
+  </si>
+  <si>
+    <t>Enrico &amp; Emilia</t>
+  </si>
+  <si>
+    <t>Enrico and Emilia Albanese</t>
+  </si>
+  <si>
+    <t>GULFVIEW HEIGHTS</t>
+  </si>
+  <si>
+    <t>14 Lipson Reach Road</t>
+  </si>
+  <si>
+    <t>E &amp; E Albanese</t>
+  </si>
+  <si>
+    <t>08 8380 5421</t>
+  </si>
+  <si>
+    <t>08 8380 5301</t>
+  </si>
+  <si>
+    <t>Drury Orchards Pty Ltd</t>
+  </si>
+  <si>
+    <t>08 8303 8601</t>
+  </si>
+  <si>
+    <t>08 8303 8632</t>
+  </si>
+  <si>
+    <t>Po Box 350</t>
+  </si>
+  <si>
+    <t>Dr Ian Dry</t>
+  </si>
+  <si>
+    <t>8349 4003</t>
+  </si>
+  <si>
+    <t>8349 4177</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ted De Poi </t>
+  </si>
+  <si>
+    <t>Store 24, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>DP Exports Pty Ltd</t>
+  </si>
+  <si>
+    <t>0417 868 902</t>
+  </si>
+  <si>
+    <t>8260 5728</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Don Turtur</t>
+  </si>
+  <si>
+    <t>Klemzig</t>
+  </si>
+  <si>
+    <t>3 Old Well Road</t>
+  </si>
+  <si>
+    <t>08 8365 8914</t>
+  </si>
+  <si>
+    <t>08 8349 4788</t>
+  </si>
+  <si>
+    <t>1201 Main North Road</t>
+  </si>
+  <si>
+    <t>Diternal Foods Pty Ltd</t>
+  </si>
+  <si>
+    <t>8280 5172</t>
+  </si>
+  <si>
+    <t>8280 8127</t>
+  </si>
+  <si>
+    <t>Carmine &amp; Sam</t>
+  </si>
+  <si>
+    <t>Carmine and Sam Di Fava, Directors</t>
+  </si>
+  <si>
+    <t>Lot 1 Curnow Road</t>
+  </si>
+  <si>
+    <t>Di Fava Farms P/ L</t>
+  </si>
+  <si>
+    <t>8396 6115</t>
+  </si>
+  <si>
+    <t>8337 1753</t>
+  </si>
+  <si>
+    <t>Joan &amp; Mostyn</t>
+  </si>
+  <si>
+    <t>Joan &amp; Mostyn Rodda</t>
+  </si>
+  <si>
+    <t>PO Box 86</t>
+  </si>
+  <si>
+    <t>Deep Cut Pty Ltd</t>
+  </si>
+  <si>
+    <t>08 8349 6484</t>
+  </si>
+  <si>
+    <t>08 8349 6249</t>
+  </si>
+  <si>
+    <t>Store 16 Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>D &amp; G Fresh Fruit Distributors</t>
+  </si>
+  <si>
+    <t>8349 6484</t>
+  </si>
+  <si>
+    <t>8349 6249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Koukos  </t>
+  </si>
+  <si>
+    <t>Store 16, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>8280 8482</t>
+  </si>
+  <si>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>Claude Covino</t>
+  </si>
+  <si>
+    <t>12 St Kilda Road</t>
+  </si>
+  <si>
+    <t>Covino Farm Fresh Foods</t>
+  </si>
+  <si>
+    <t>08 83808933</t>
+  </si>
+  <si>
+    <t>08 83808977</t>
+  </si>
+  <si>
+    <t>P O Box 508</t>
+  </si>
+  <si>
+    <t>Cousins Produce Unit Trust</t>
+  </si>
+  <si>
+    <t>8260 3384</t>
+  </si>
+  <si>
+    <t>8349 4234</t>
+  </si>
+  <si>
+    <t>Xen</t>
+  </si>
+  <si>
+    <t>Xen Nikitopoulos</t>
+  </si>
+  <si>
+    <t>Store 39, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Country Crisp Fresh Produce</t>
+  </si>
+  <si>
+    <t>08 83494234</t>
+  </si>
+  <si>
+    <t>Store 39 Diagonal Rd</t>
+  </si>
+  <si>
+    <t>Country Crisp</t>
+  </si>
+  <si>
+    <t>8388 2711</t>
+  </si>
+  <si>
+    <t>8388 2777</t>
+  </si>
+  <si>
+    <t>Rmb 840, Star And Arrow Rd</t>
+  </si>
+  <si>
+    <t>Coromandel Nursery</t>
+  </si>
+  <si>
+    <t>Arthur 8280 9072</t>
+  </si>
+  <si>
+    <t>Arthur, Leon &amp; Evthoxia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur, Leon &amp; Evthoxia Mylonopoulos </t>
+  </si>
+  <si>
+    <t>PO Box 459</t>
+  </si>
+  <si>
+    <t>Cons Choice Strawberries</t>
+  </si>
+  <si>
+    <t>8349 4965</t>
+  </si>
+  <si>
+    <t>8349 4984</t>
+  </si>
+  <si>
+    <t>Store C49, Apml, Diagonal Road</t>
+  </si>
+  <si>
+    <t>Collins Orchards Rose Brand Sales Pty. Ltd</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Tim Collins</t>
+  </si>
+  <si>
+    <t>Store 49, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Collins Orchards</t>
+  </si>
+  <si>
+    <t>8359 0144</t>
+  </si>
+  <si>
+    <t>8349 4786</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Ken Cobbledick</t>
+  </si>
+  <si>
+    <t>Store 52, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Cobbledick Bros Nominees</t>
+  </si>
+  <si>
+    <t>08 8262 6069</t>
+  </si>
+  <si>
+    <t>08 8262 3737</t>
+  </si>
+  <si>
+    <t>Building M, Apml, Diagonal Road</t>
+  </si>
+  <si>
+    <t>City Fruit &amp; Vegetable Supply</t>
+  </si>
+  <si>
+    <t>Store 47, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>City Fruit &amp; Veg. Supply / Scalzi Produce.</t>
+  </si>
+  <si>
+    <t>8260 5595</t>
+  </si>
+  <si>
+    <t>8260 3244</t>
+  </si>
+  <si>
+    <t>Sam Puccini</t>
+  </si>
+  <si>
+    <t>Store 29, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Choice Fruit &amp; Veg</t>
+  </si>
+  <si>
+    <t>03 5024 6769</t>
+  </si>
+  <si>
+    <t>03 5024 6563</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Michael Castro</t>
+  </si>
+  <si>
+    <t>PO Box 1461</t>
+  </si>
+  <si>
+    <t>Castro Pty Ltd</t>
+  </si>
+  <si>
+    <t>8380 9312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8380 9312 </t>
+  </si>
+  <si>
+    <t>Charlie Nguyen</t>
+  </si>
+  <si>
+    <t>PO Box 918</t>
+  </si>
+  <si>
+    <t>C. Nguyen Fresh Produce</t>
+  </si>
+  <si>
+    <t>8380 9689</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Chris Kalkanis</t>
+  </si>
+  <si>
+    <t>PO Box 73</t>
+  </si>
+  <si>
+    <t>C &amp; M Kalkanis</t>
+  </si>
+  <si>
+    <t>08 5392 3213</t>
+  </si>
+  <si>
+    <t>08 8752 0466</t>
+  </si>
+  <si>
+    <t>92 Farquhar Street</t>
+  </si>
+  <si>
+    <t>Bordertown Fruit Market</t>
+  </si>
+  <si>
+    <t>8337 1193</t>
+  </si>
+  <si>
+    <t>8337 8138</t>
+  </si>
+  <si>
+    <t>Store 40, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Belperio Brothers</t>
+  </si>
+  <si>
+    <t>8349 7045</t>
+  </si>
+  <si>
+    <t>8349 7008</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
+    <t>Doug Nicol</t>
+  </si>
+  <si>
+    <t>Stores 35 &amp; 36, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>BD &amp; MD Nicol  &amp; Son Pty Ltd</t>
+  </si>
+  <si>
+    <t>08 8262 7121</t>
+  </si>
+  <si>
+    <t>08 8262 7001</t>
+  </si>
+  <si>
+    <t>Lot 16 Cardiff Court</t>
+  </si>
+  <si>
+    <t>Barlease Nominees Pty Ltd</t>
+  </si>
+  <si>
+    <t>Giuseppe (Joe) Agostino</t>
+  </si>
+  <si>
+    <t>Seaview Downs</t>
+  </si>
+  <si>
+    <t>2A Basten Avenue</t>
+  </si>
+  <si>
+    <t>Banana Palm Fruiterers</t>
+  </si>
+  <si>
+    <t>George Mercurio</t>
+  </si>
+  <si>
+    <t>Stores 6 &amp; 7, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>Bache Bros / The House of Bache</t>
+  </si>
+  <si>
+    <t>8389 2494</t>
+  </si>
+  <si>
+    <t>8389 2267</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>CUDLEE CREEK</t>
+  </si>
+  <si>
+    <t>Newman Road</t>
+  </si>
+  <si>
+    <t>B. Newman</t>
+  </si>
+  <si>
+    <t>Tuan Anh Bui</t>
+  </si>
+  <si>
+    <t>Lot 17, Robinson Road</t>
+  </si>
+  <si>
+    <t>A-T-Bui</t>
+  </si>
+  <si>
+    <t>08 8349 8922</t>
+  </si>
+  <si>
+    <t>08 8349 8933</t>
+  </si>
+  <si>
+    <t>Store 57 - Apml, Diagonal Road</t>
+  </si>
+  <si>
+    <t>Aritiara Pty Ltd</t>
+  </si>
+  <si>
+    <t>8380 9882</t>
+  </si>
+  <si>
+    <t>Terry Arharidis</t>
+  </si>
+  <si>
+    <t>PO Box 80</t>
+  </si>
+  <si>
+    <t>Arharidis Brothers Pty Ltd</t>
+  </si>
+  <si>
+    <t>8389 8413</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Roger Schultz</t>
+  </si>
+  <si>
+    <t>FOREST RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Box 169, </t>
+  </si>
+  <si>
+    <t>Appelina Hills</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>85578877</t>
+  </si>
+  <si>
+    <t>20 Matheson Avenue</t>
+  </si>
+  <si>
+    <t>Apolusi Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>08 8260 1555</t>
+  </si>
+  <si>
+    <t>08 8260 1755</t>
+  </si>
+  <si>
+    <t>Store 38, Apml,, Diagonal Road</t>
+  </si>
+  <si>
+    <t>08 8595 1394</t>
+  </si>
+  <si>
+    <t>08 8586 1200</t>
+  </si>
+  <si>
+    <t>Pmb 52 Chowilla Street</t>
+  </si>
+  <si>
+    <t>Agriexchange Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>8390 1765</t>
+  </si>
+  <si>
+    <t>8349 5579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Parker </t>
+  </si>
+  <si>
+    <t>Store 12, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>AF Parker &amp; Sons Sales Pty Ltd</t>
+  </si>
+  <si>
+    <t>08 83901765</t>
+  </si>
+  <si>
+    <t>08 83903091</t>
+  </si>
+  <si>
+    <t>Range Road</t>
+  </si>
+  <si>
+    <t>Af Parker &amp; Sons</t>
+  </si>
+  <si>
+    <t>8298 1220</t>
+  </si>
+  <si>
+    <t>8349 6451</t>
+  </si>
+  <si>
+    <t>Jim Gibson</t>
+  </si>
+  <si>
+    <t>Store 41, Adelaide Produce Markets</t>
+  </si>
+  <si>
+    <t>AC Gibson Pty Ltd / Gibson Exports</t>
+  </si>
+  <si>
+    <t>8278 3692</t>
+  </si>
+  <si>
+    <t>Roger,Hugh, Andrew &amp; John Magarey</t>
+  </si>
+  <si>
+    <t>COROMANDEL VALLEY</t>
+  </si>
+  <si>
+    <t>40 Magarey Road</t>
+  </si>
+  <si>
+    <t>A.A. Magarey &amp; Sons</t>
+  </si>
+  <si>
+    <t>8 Lowanna Road</t>
+  </si>
+  <si>
+    <t>A C Gibson Pty. Ltd.</t>
+  </si>
+  <si>
+    <t>8 380 8432</t>
+  </si>
+  <si>
+    <t>8 380 8317</t>
+  </si>
+  <si>
+    <t>Po Box 916</t>
+  </si>
+  <si>
+    <t>4 Ways Pty Ltd</t>
+  </si>
+  <si>
+    <t>08 8353 0201</t>
+  </si>
+  <si>
+    <t>08 8355 4041</t>
+  </si>
+  <si>
+    <t>1 Phillips Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D A Stockton &amp; L Stockton</t>
+  </si>
+  <si>
+    <t>Fax Number</t>
+  </si>
+  <si>
+    <t>Phone numbers</t>
+  </si>
+  <si>
+    <t>Greeting</t>
+  </si>
+  <si>
+    <t>Attention:</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Suburb</t>
+  </si>
+  <si>
+    <t>Mailing Address</t>
+  </si>
+  <si>
+    <t>Trading As</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3688,16 +6309,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="57"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3705,17 +6349,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="57"/>
+      </right>
+      <top style="thin">
+        <color indexed="57"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="57"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="57"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="57"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="57"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="57"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="57"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="57"/>
+      </right>
+      <top style="thin">
+        <color indexed="57"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="57"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="57"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="57"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="57"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="57"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="57"/>
+          <bgColor indexed="57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3733,26 +6573,34 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DOrder"/>
+      <sheetName val="NoMacro"/>
       <sheetName val="Data"/>
       <sheetName val="Details"/>
       <sheetName val="Trucks"/>
-      <sheetName val="Importers"/>
       <sheetName val="Exporters"/>
+      <sheetName val="QDO_Rev_17"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="51">
+          <cell r="M51" t="str">
+            <v>John Sherriff</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tblTrucks" backgroundRefresh="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tblTrucks" backgroundRefresh="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="BUSINESS" tableColumnId="1"/>
@@ -3793,25 +6641,6 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tblExporters" backgroundRefresh="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="6">
-    <queryTableFields count="5">
-      <queryTableField id="1" name="TradingName" tableColumnId="1"/>
-      <queryTableField id="2" name="Street_Address" tableColumnId="2"/>
-      <queryTableField id="3" name="City" tableColumnId="3"/>
-      <queryTableField id="4" name="IP" tableColumnId="4"/>
-      <queryTableField id="5" name="Full Address" tableColumnId="5"/>
-    </queryTableFields>
-  </queryTableRefresh>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{883FBD77-0823-4a55-B5E3-86C4891E6966}">
-      <x15:queryTable sourceDataName="WorksheetConnection_QDO_Rev_17.xlsm!tblExporters"/>
-    </ext>
-  </extLst>
-</queryTable>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_tblTrucks" displayName="Table_tblTrucks" ref="B2:J103" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B2:J103"/>
@@ -3831,7 +6660,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_tblExporters" displayName="Table_tblExporters" ref="B2:F136" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_tblExporters4" displayName="Table_tblExporters4" ref="B2:F136" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B2:F136"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="1" name="TradingName" queryTableFieldId="1"/>
@@ -3845,16 +6674,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_tblExporters4" displayName="Table_tblExporters4" ref="B2:F136" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="B2:F136"/>
-  <tableColumns count="5">
-    <tableColumn id="1" uniqueName="1" name="TradingName" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Street_Address" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="City" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="IP" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="Full Address" queryTableFieldId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table345" displayName="Table345" ref="B3:J172" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="B3:J172"/>
+  <sortState ref="B7:J208">
+    <sortCondition ref="B6:B208"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Trading As" dataDxfId="8"/>
+    <tableColumn id="2" name="Mailing Address" dataDxfId="7"/>
+    <tableColumn id="3" name="Suburb" dataDxfId="6"/>
+    <tableColumn id="4" name="State" dataDxfId="5"/>
+    <tableColumn id="5" name="Postcode" dataDxfId="4"/>
+    <tableColumn id="6" name="Attention:" dataDxfId="3"/>
+    <tableColumn id="7" name="Greeting" dataDxfId="2"/>
+    <tableColumn id="8" name="Phone numbers" dataDxfId="1"/>
+    <tableColumn id="9" name="Fax Number" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4121,10 +6957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J103"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6477,10 +9314,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:F136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F136"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8785,2308 +11623,4424 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F136"/>
+  <sheetPr codeName="shtImporters"/>
+  <dimension ref="B3:K171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F136"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="40.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C2" t="s">
-        <v>595</v>
-      </c>
-      <c r="D2" t="s">
-        <v>596</v>
-      </c>
-      <c r="E2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>599</v>
-      </c>
-      <c r="C3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D3" t="s">
-        <v>601</v>
-      </c>
-      <c r="E3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>604</v>
-      </c>
-      <c r="C4" t="s">
-        <v>605</v>
-      </c>
-      <c r="D4" t="s">
-        <v>606</v>
-      </c>
-      <c r="E4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F4" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>609</v>
-      </c>
-      <c r="C5" t="s">
-        <v>610</v>
-      </c>
-      <c r="D5" t="s">
-        <v>606</v>
-      </c>
-      <c r="E5" t="s">
-        <v>611</v>
-      </c>
-      <c r="F5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>613</v>
-      </c>
-      <c r="C6" t="s">
-        <v>614</v>
-      </c>
-      <c r="D6" t="s">
-        <v>615</v>
-      </c>
-      <c r="E6" t="s">
-        <v>616</v>
-      </c>
-      <c r="F6" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>618</v>
-      </c>
-      <c r="C7" t="s">
-        <v>619</v>
-      </c>
-      <c r="D7" t="s">
-        <v>620</v>
-      </c>
-      <c r="E7" t="s">
-        <v>621</v>
-      </c>
-      <c r="F7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>623</v>
-      </c>
-      <c r="C8" t="s">
-        <v>624</v>
-      </c>
-      <c r="D8" t="s">
-        <v>625</v>
-      </c>
-      <c r="E8" t="s">
-        <v>626</v>
-      </c>
-      <c r="F8" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>628</v>
-      </c>
-      <c r="C9" t="s">
-        <v>629</v>
-      </c>
-      <c r="D9" t="s">
-        <v>601</v>
-      </c>
-      <c r="E9" t="s">
-        <v>630</v>
-      </c>
-      <c r="F9" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>632</v>
-      </c>
-      <c r="C10" t="s">
-        <v>633</v>
-      </c>
-      <c r="D10" t="s">
-        <v>634</v>
-      </c>
-      <c r="E10" t="s">
-        <v>635</v>
-      </c>
-      <c r="F10" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>637</v>
-      </c>
-      <c r="C11" t="s">
-        <v>638</v>
-      </c>
-      <c r="D11" t="s">
-        <v>601</v>
-      </c>
-      <c r="E11" t="s">
-        <v>639</v>
-      </c>
-      <c r="F11" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>641</v>
-      </c>
-      <c r="C12" t="s">
-        <v>642</v>
-      </c>
-      <c r="D12" t="s">
-        <v>643</v>
-      </c>
-      <c r="E12" t="s">
-        <v>644</v>
-      </c>
-      <c r="F12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>646</v>
-      </c>
-      <c r="C13" t="s">
-        <v>647</v>
-      </c>
-      <c r="D13" t="s">
-        <v>643</v>
-      </c>
-      <c r="E13" t="s">
-        <v>648</v>
-      </c>
-      <c r="F13" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>650</v>
-      </c>
-      <c r="C14" t="s">
-        <v>651</v>
-      </c>
-      <c r="D14" t="s">
-        <v>652</v>
-      </c>
-      <c r="E14" t="s">
-        <v>653</v>
-      </c>
-      <c r="F14" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>655</v>
-      </c>
-      <c r="C15" t="s">
-        <v>656</v>
-      </c>
-      <c r="D15" t="s">
-        <v>657</v>
-      </c>
-      <c r="E15" t="s">
-        <v>658</v>
-      </c>
-      <c r="F15" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>660</v>
-      </c>
-      <c r="C16" t="s">
-        <v>661</v>
-      </c>
-      <c r="D16" t="s">
-        <v>662</v>
-      </c>
-      <c r="E16" t="s">
-        <v>663</v>
-      </c>
-      <c r="F16" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>665</v>
-      </c>
-      <c r="C17" t="s">
-        <v>666</v>
-      </c>
-      <c r="D17" t="s">
-        <v>667</v>
-      </c>
-      <c r="E17" t="s">
-        <v>668</v>
-      </c>
-      <c r="F17" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>670</v>
-      </c>
-      <c r="C18" t="s">
-        <v>671</v>
-      </c>
-      <c r="D18" t="s">
-        <v>672</v>
-      </c>
-      <c r="E18" t="s">
-        <v>673</v>
-      </c>
-      <c r="F18" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>675</v>
-      </c>
-      <c r="C19" t="s">
-        <v>676</v>
-      </c>
-      <c r="D19" t="s">
-        <v>677</v>
-      </c>
-      <c r="E19" t="s">
-        <v>678</v>
-      </c>
-      <c r="F19" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>680</v>
-      </c>
-      <c r="C20" t="s">
-        <v>681</v>
-      </c>
-      <c r="D20" t="s">
-        <v>682</v>
-      </c>
-      <c r="E20" t="s">
-        <v>683</v>
-      </c>
-      <c r="F20" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>685</v>
-      </c>
-      <c r="C21" t="s">
-        <v>686</v>
-      </c>
-      <c r="D21" t="s">
-        <v>662</v>
-      </c>
-      <c r="E21" t="s">
-        <v>687</v>
-      </c>
-      <c r="F21" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>689</v>
-      </c>
-      <c r="C22" t="s">
-        <v>690</v>
-      </c>
-      <c r="D22" t="s">
-        <v>691</v>
-      </c>
-      <c r="E22" t="s">
-        <v>692</v>
-      </c>
-      <c r="F22" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>694</v>
-      </c>
-      <c r="C23" t="s">
-        <v>695</v>
-      </c>
-      <c r="D23" t="s">
-        <v>696</v>
-      </c>
-      <c r="E23" t="s">
-        <v>697</v>
-      </c>
-      <c r="F23" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>699</v>
-      </c>
-      <c r="C24" t="s">
-        <v>700</v>
-      </c>
-      <c r="D24" t="s">
-        <v>643</v>
-      </c>
-      <c r="E24" t="s">
-        <v>701</v>
-      </c>
-      <c r="F24" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>703</v>
-      </c>
-      <c r="C25" t="s">
-        <v>704</v>
-      </c>
-      <c r="D25" t="s">
-        <v>662</v>
-      </c>
-      <c r="E25" t="s">
-        <v>705</v>
-      </c>
-      <c r="F25" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>707</v>
-      </c>
-      <c r="C26" t="s">
-        <v>708</v>
-      </c>
-      <c r="D26" t="s">
-        <v>601</v>
-      </c>
-      <c r="E26" t="s">
-        <v>709</v>
-      </c>
-      <c r="F26" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>711</v>
-      </c>
-      <c r="C27" t="s">
-        <v>712</v>
-      </c>
-      <c r="D27" t="s">
-        <v>713</v>
-      </c>
-      <c r="E27" t="s">
-        <v>714</v>
-      </c>
-      <c r="F27" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>716</v>
-      </c>
-      <c r="C28" t="s">
-        <v>717</v>
-      </c>
-      <c r="D28" t="s">
-        <v>652</v>
-      </c>
-      <c r="E28" t="s">
-        <v>718</v>
-      </c>
-      <c r="F28" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F29" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>721</v>
-      </c>
-      <c r="C30" t="s">
-        <v>722</v>
-      </c>
-      <c r="D30" t="s">
-        <v>657</v>
-      </c>
-      <c r="E30" t="s">
-        <v>723</v>
-      </c>
-      <c r="F30" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>725</v>
-      </c>
-      <c r="C31" t="s">
-        <v>726</v>
-      </c>
-      <c r="D31" t="s">
-        <v>727</v>
-      </c>
-      <c r="E31" t="s">
-        <v>728</v>
-      </c>
-      <c r="F31" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>730</v>
-      </c>
-      <c r="C32" t="s">
-        <v>731</v>
-      </c>
-      <c r="D32" t="s">
-        <v>662</v>
-      </c>
-      <c r="E32" t="s">
-        <v>732</v>
-      </c>
-      <c r="F32" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>734</v>
-      </c>
-      <c r="C33" t="s">
-        <v>735</v>
-      </c>
-      <c r="D33" t="s">
-        <v>620</v>
-      </c>
-      <c r="E33" t="s">
-        <v>736</v>
-      </c>
-      <c r="F33" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>738</v>
-      </c>
-      <c r="C34" t="s">
-        <v>739</v>
-      </c>
-      <c r="D34" t="s">
-        <v>740</v>
-      </c>
-      <c r="E34" t="s">
-        <v>741</v>
-      </c>
-      <c r="F34" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>743</v>
-      </c>
-      <c r="C35" t="s">
-        <v>744</v>
-      </c>
-      <c r="D35" t="s">
-        <v>727</v>
-      </c>
-      <c r="E35" t="s">
-        <v>745</v>
-      </c>
-      <c r="F35" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>747</v>
-      </c>
-      <c r="C36" t="s">
-        <v>748</v>
-      </c>
-      <c r="D36" t="s">
-        <v>643</v>
-      </c>
-      <c r="E36" t="s">
-        <v>749</v>
-      </c>
-      <c r="F36" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>751</v>
-      </c>
-      <c r="C37" t="s">
-        <v>752</v>
-      </c>
-      <c r="D37" t="s">
-        <v>753</v>
-      </c>
-      <c r="E37" t="s">
-        <v>754</v>
-      </c>
-      <c r="F37" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>756</v>
-      </c>
-      <c r="C38" t="s">
-        <v>757</v>
-      </c>
-      <c r="D38" t="s">
-        <v>758</v>
-      </c>
-      <c r="E38" t="s">
-        <v>759</v>
-      </c>
-      <c r="F38" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>761</v>
-      </c>
-      <c r="C39" t="s">
-        <v>762</v>
-      </c>
-      <c r="D39" t="s">
-        <v>643</v>
-      </c>
-      <c r="E39" t="s">
-        <v>763</v>
-      </c>
-      <c r="F39" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>765</v>
-      </c>
-      <c r="C40" t="s">
-        <v>766</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2057</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>2056</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25" t="s">
+        <v>2052</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>2048</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25" t="s">
+        <v>2036</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="21">
+        <v>5051</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>2040</v>
+      </c>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>2037</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25" t="s">
+        <v>2032</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>2026</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25" t="s">
+        <v>2022</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25" t="s">
+        <v>2022</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25" t="s">
+        <v>2015</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="21">
+        <v>5139</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>2008</v>
+      </c>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="21">
+        <v>5120</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>2005</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="19" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25" t="s">
+        <v>2001</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="21">
+        <v>5110</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="21">
+        <v>5232</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>1993</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>1993</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>1992</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>1988</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="31">
+        <v>5049</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>1984</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>1977</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>1976</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>1975</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>1971</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25" t="s">
+        <v>1967</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="21">
+        <v>5120</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>1963</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>1962</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>1961</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="21">
+        <v>5120</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>1957</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F28" s="31">
+        <v>3501</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>1953</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>1952</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>1951</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="23" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>1688</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>1946</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25" t="s">
+        <v>1940</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="23" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>1935</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="23" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>1930</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>1926</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25" t="s">
+        <v>1926</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="21">
+        <v>5120</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>1922</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>1920</v>
+      </c>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="26" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25" t="s">
+        <v>1917</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="26" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25" t="s">
+        <v>1913</v>
+      </c>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>1909</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="26" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25" t="s">
+        <v>1904</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="21">
+        <v>5110</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>1899</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J40" s="19"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="26" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25" t="s">
+        <v>1891</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="33" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D43" s="30" t="s">
         <v>767</v>
       </c>
-      <c r="E40" t="s">
-        <v>768</v>
-      </c>
-      <c r="F40" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>770</v>
-      </c>
-      <c r="C41" t="s">
-        <v>771</v>
-      </c>
-      <c r="D41" t="s">
-        <v>772</v>
-      </c>
-      <c r="E41" t="s">
-        <v>773</v>
-      </c>
-      <c r="F41" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>775</v>
-      </c>
-      <c r="C42" t="s">
-        <v>776</v>
-      </c>
-      <c r="D42" t="s">
-        <v>777</v>
-      </c>
-      <c r="E42" t="s">
-        <v>778</v>
-      </c>
-      <c r="F42" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>780</v>
-      </c>
-      <c r="C43" t="s">
-        <v>781</v>
-      </c>
-      <c r="D43" t="s">
-        <v>662</v>
-      </c>
-      <c r="E43" t="s">
-        <v>782</v>
-      </c>
-      <c r="F43" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>784</v>
-      </c>
-      <c r="C44" t="s">
-        <v>785</v>
-      </c>
-      <c r="D44" t="s">
-        <v>786</v>
-      </c>
-      <c r="E44" t="s">
-        <v>787</v>
-      </c>
-      <c r="F44" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>789</v>
-      </c>
-      <c r="C45" t="s">
-        <v>790</v>
-      </c>
-      <c r="D45" t="s">
-        <v>657</v>
-      </c>
-      <c r="E45" t="s">
-        <v>791</v>
-      </c>
-      <c r="F45" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>793</v>
-      </c>
-      <c r="C46" t="s">
-        <v>794</v>
-      </c>
-      <c r="D46" t="s">
-        <v>643</v>
-      </c>
-      <c r="E46" t="s">
-        <v>795</v>
-      </c>
-      <c r="F46" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>797</v>
-      </c>
-      <c r="C47" t="s">
-        <v>798</v>
-      </c>
-      <c r="D47" t="s">
-        <v>643</v>
-      </c>
-      <c r="E47" t="s">
-        <v>799</v>
-      </c>
-      <c r="F47" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>801</v>
-      </c>
-      <c r="C48" t="s">
-        <v>802</v>
-      </c>
-      <c r="D48" t="s">
-        <v>777</v>
-      </c>
-      <c r="E48" t="s">
-        <v>803</v>
-      </c>
-      <c r="F48" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>805</v>
-      </c>
-      <c r="C49" t="s">
-        <v>806</v>
-      </c>
-      <c r="D49" t="s">
-        <v>807</v>
-      </c>
-      <c r="E49" t="s">
-        <v>808</v>
-      </c>
-      <c r="F49" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>810</v>
-      </c>
-      <c r="C50" t="s">
-        <v>811</v>
-      </c>
-      <c r="D50" t="s">
-        <v>677</v>
-      </c>
-      <c r="E50" t="s">
-        <v>812</v>
-      </c>
-      <c r="F50" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>814</v>
-      </c>
-      <c r="C51" t="s">
-        <v>815</v>
-      </c>
-      <c r="D51" t="s">
-        <v>662</v>
-      </c>
-      <c r="E51" t="s">
-        <v>816</v>
-      </c>
-      <c r="F51" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>818</v>
-      </c>
-      <c r="C52" t="s">
-        <v>819</v>
-      </c>
-      <c r="D52" t="s">
-        <v>820</v>
-      </c>
-      <c r="E52" t="s">
-        <v>821</v>
-      </c>
-      <c r="F52" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>823</v>
-      </c>
-      <c r="C53" t="s">
-        <v>824</v>
-      </c>
-      <c r="D53" t="s">
-        <v>601</v>
-      </c>
-      <c r="E53" t="s">
-        <v>825</v>
-      </c>
-      <c r="F53" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>827</v>
-      </c>
-      <c r="C54" t="s">
-        <v>828</v>
-      </c>
-      <c r="D54" t="s">
-        <v>657</v>
-      </c>
-      <c r="E54" t="s">
-        <v>829</v>
-      </c>
-      <c r="F54" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>831</v>
-      </c>
-      <c r="C55" t="s">
-        <v>832</v>
-      </c>
-      <c r="D55" t="s">
-        <v>833</v>
-      </c>
-      <c r="E55" t="s">
-        <v>834</v>
-      </c>
-      <c r="F55" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>836</v>
-      </c>
-      <c r="C56" t="s">
-        <v>837</v>
-      </c>
-      <c r="D56" t="s">
-        <v>838</v>
-      </c>
-      <c r="E56" t="s">
-        <v>839</v>
-      </c>
-      <c r="F56" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>841</v>
-      </c>
-      <c r="C57" t="s">
-        <v>842</v>
-      </c>
-      <c r="D57" t="s">
-        <v>643</v>
-      </c>
-      <c r="E57" t="s">
-        <v>843</v>
-      </c>
-      <c r="F57" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>845</v>
-      </c>
-      <c r="C58" t="s">
-        <v>842</v>
-      </c>
-      <c r="D58" t="s">
-        <v>643</v>
-      </c>
-      <c r="E58" t="s">
-        <v>846</v>
-      </c>
-      <c r="F58" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>848</v>
-      </c>
-      <c r="C59" t="s">
-        <v>849</v>
-      </c>
-      <c r="D59" t="s">
-        <v>850</v>
-      </c>
-      <c r="E59" t="s">
-        <v>851</v>
-      </c>
-      <c r="F59" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>853</v>
-      </c>
-      <c r="C60" t="s">
-        <v>854</v>
-      </c>
-      <c r="D60" t="s">
-        <v>855</v>
-      </c>
-      <c r="E60" t="s">
-        <v>856</v>
-      </c>
-      <c r="F60" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>858</v>
-      </c>
-      <c r="C61" t="s">
-        <v>859</v>
-      </c>
-      <c r="D61" t="s">
-        <v>860</v>
-      </c>
-      <c r="E61" t="s">
-        <v>861</v>
-      </c>
-      <c r="F61" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>863</v>
-      </c>
-      <c r="C62" t="s">
-        <v>864</v>
-      </c>
-      <c r="D62" t="s">
-        <v>667</v>
-      </c>
-      <c r="E62" t="s">
-        <v>865</v>
-      </c>
-      <c r="F62" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>867</v>
-      </c>
-      <c r="C63" t="s">
-        <v>868</v>
-      </c>
-      <c r="D63" t="s">
-        <v>620</v>
-      </c>
-      <c r="E63" t="s">
-        <v>869</v>
-      </c>
-      <c r="F63" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>871</v>
-      </c>
-      <c r="C64" t="s">
-        <v>872</v>
-      </c>
-      <c r="D64" t="s">
-        <v>873</v>
-      </c>
-      <c r="E64" t="s">
-        <v>874</v>
-      </c>
-      <c r="F64" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>876</v>
-      </c>
-      <c r="C65" t="s">
-        <v>877</v>
-      </c>
-      <c r="D65" t="s">
-        <v>878</v>
-      </c>
-      <c r="E65" t="s">
-        <v>879</v>
-      </c>
-      <c r="F65" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>881</v>
-      </c>
-      <c r="C66" t="s">
-        <v>882</v>
-      </c>
-      <c r="D66" t="s">
-        <v>883</v>
-      </c>
-      <c r="E66" t="s">
-        <v>884</v>
-      </c>
-      <c r="F66" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>886</v>
-      </c>
-      <c r="C67" t="s">
-        <v>887</v>
-      </c>
-      <c r="D67" t="s">
-        <v>662</v>
-      </c>
-      <c r="E67" t="s">
-        <v>888</v>
-      </c>
-      <c r="F67" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>890</v>
-      </c>
-      <c r="C68" t="s">
-        <v>891</v>
-      </c>
-      <c r="D68" t="s">
-        <v>820</v>
-      </c>
-      <c r="E68" t="s">
-        <v>892</v>
-      </c>
-      <c r="F68" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>894</v>
-      </c>
-      <c r="C69" t="s">
-        <v>895</v>
-      </c>
-      <c r="D69" t="s">
-        <v>896</v>
-      </c>
-      <c r="E69" t="s">
-        <v>897</v>
-      </c>
-      <c r="F69" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>899</v>
-      </c>
-      <c r="C70" t="s">
-        <v>900</v>
-      </c>
-      <c r="D70" t="s">
-        <v>657</v>
-      </c>
-      <c r="E70" t="s">
-        <v>901</v>
-      </c>
-      <c r="F70" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>903</v>
-      </c>
-      <c r="C71" t="s">
-        <v>904</v>
-      </c>
-      <c r="D71" t="s">
-        <v>601</v>
-      </c>
-      <c r="E71" t="s">
-        <v>905</v>
-      </c>
-      <c r="F71" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>907</v>
-      </c>
-      <c r="C72" t="s">
-        <v>908</v>
-      </c>
-      <c r="D72" t="s">
-        <v>601</v>
-      </c>
-      <c r="E72" t="s">
-        <v>909</v>
-      </c>
-      <c r="F72" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>911</v>
-      </c>
-      <c r="C73" t="s">
-        <v>912</v>
-      </c>
-      <c r="D73" t="s">
-        <v>643</v>
-      </c>
-      <c r="E73" t="s">
-        <v>913</v>
-      </c>
-      <c r="F73" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>915</v>
-      </c>
-      <c r="C74" t="s">
-        <v>916</v>
-      </c>
-      <c r="D74" t="s">
-        <v>917</v>
-      </c>
-      <c r="E74" t="s">
-        <v>918</v>
-      </c>
-      <c r="F74" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>920</v>
-      </c>
-      <c r="C75" t="s">
-        <v>921</v>
-      </c>
-      <c r="D75" t="s">
-        <v>922</v>
-      </c>
-      <c r="E75" t="s">
-        <v>923</v>
-      </c>
-      <c r="F75" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>925</v>
-      </c>
-      <c r="C76" t="s">
-        <v>926</v>
-      </c>
-      <c r="D76" t="s">
-        <v>927</v>
-      </c>
-      <c r="E76" t="s">
-        <v>928</v>
-      </c>
-      <c r="F76" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>930</v>
-      </c>
-      <c r="C77" t="s">
-        <v>931</v>
-      </c>
-      <c r="D77" t="s">
-        <v>662</v>
-      </c>
-      <c r="E77" t="s">
-        <v>932</v>
-      </c>
-      <c r="F77" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>934</v>
-      </c>
-      <c r="C78" t="s">
-        <v>935</v>
-      </c>
-      <c r="D78" t="s">
-        <v>936</v>
-      </c>
-      <c r="E78" t="s">
-        <v>937</v>
-      </c>
-      <c r="F78" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>939</v>
-      </c>
-      <c r="C79" t="s">
-        <v>940</v>
-      </c>
-      <c r="D79" t="s">
-        <v>878</v>
-      </c>
-      <c r="E79" t="s">
-        <v>941</v>
-      </c>
-      <c r="F79" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>943</v>
-      </c>
-      <c r="C80" t="s">
-        <v>944</v>
-      </c>
-      <c r="D80" t="s">
-        <v>945</v>
-      </c>
-      <c r="E80" t="s">
-        <v>946</v>
-      </c>
-      <c r="F80" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>948</v>
-      </c>
-      <c r="C81" t="s">
-        <v>949</v>
-      </c>
-      <c r="D81" t="s">
-        <v>950</v>
-      </c>
-      <c r="E81" t="s">
-        <v>951</v>
-      </c>
-      <c r="F81" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>953</v>
-      </c>
-      <c r="C82" t="s">
-        <v>954</v>
-      </c>
-      <c r="D82" t="s">
-        <v>878</v>
-      </c>
-      <c r="E82" t="s">
-        <v>955</v>
-      </c>
-      <c r="F82" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>957</v>
-      </c>
-      <c r="C83" t="s">
-        <v>958</v>
-      </c>
-      <c r="D83" t="s">
-        <v>662</v>
-      </c>
-      <c r="E83" t="s">
-        <v>959</v>
-      </c>
-      <c r="F83" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>961</v>
-      </c>
-      <c r="C84" t="s">
-        <v>962</v>
-      </c>
-      <c r="D84" t="s">
-        <v>963</v>
-      </c>
-      <c r="E84" t="s">
-        <v>964</v>
-      </c>
-      <c r="F84" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>966</v>
-      </c>
-      <c r="C85" t="s">
-        <v>967</v>
-      </c>
-      <c r="D85" t="s">
-        <v>968</v>
-      </c>
-      <c r="E85" t="s">
-        <v>969</v>
-      </c>
-      <c r="F85" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>971</v>
-      </c>
-      <c r="C86" t="s">
-        <v>972</v>
-      </c>
-      <c r="D86" t="s">
-        <v>973</v>
-      </c>
-      <c r="E86" t="s">
-        <v>974</v>
-      </c>
-      <c r="F86" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>976</v>
-      </c>
-      <c r="C87" t="s">
-        <v>977</v>
-      </c>
-      <c r="D87" t="s">
-        <v>643</v>
-      </c>
-      <c r="E87" t="s">
-        <v>978</v>
-      </c>
-      <c r="F87" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>980</v>
-      </c>
-      <c r="C88" t="s">
-        <v>981</v>
-      </c>
-      <c r="D88" t="s">
-        <v>982</v>
-      </c>
-      <c r="E88" t="s">
-        <v>983</v>
-      </c>
-      <c r="F88" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>985</v>
-      </c>
-      <c r="C89" t="s">
-        <v>986</v>
-      </c>
-      <c r="D89" t="s">
-        <v>963</v>
-      </c>
-      <c r="E89" t="s">
-        <v>987</v>
-      </c>
-      <c r="F89" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>989</v>
-      </c>
-      <c r="C90" t="s">
-        <v>990</v>
-      </c>
-      <c r="D90" t="s">
-        <v>643</v>
-      </c>
-      <c r="E90" t="s">
-        <v>991</v>
-      </c>
-      <c r="F90" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>993</v>
-      </c>
-      <c r="C91" t="s">
-        <v>731</v>
-      </c>
-      <c r="D91" t="s">
-        <v>662</v>
-      </c>
-      <c r="E91" t="s">
-        <v>994</v>
-      </c>
-      <c r="F91" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>996</v>
-      </c>
-      <c r="C92" t="s">
-        <v>997</v>
-      </c>
-      <c r="D92" t="s">
-        <v>998</v>
-      </c>
-      <c r="E92" t="s">
-        <v>999</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F93" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D94" t="s">
-        <v>820</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F94" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F95" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D96" t="s">
-        <v>652</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F96" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D97" t="s">
-        <v>662</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F97" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D98" t="s">
-        <v>643</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F98" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D99" t="s">
-        <v>855</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F99" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D100" t="s">
-        <v>657</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F100" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F101" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C102" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D102" t="s">
-        <v>643</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F102" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D103" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F103" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D104" t="s">
-        <v>620</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F104" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D105" t="s">
-        <v>662</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F105" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C106" t="s">
-        <v>842</v>
-      </c>
-      <c r="D106" t="s">
-        <v>643</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F106" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D107" t="s">
-        <v>662</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F107" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D108" t="s">
-        <v>936</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F108" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F109" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D110" t="s">
-        <v>662</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F110" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D111" t="s">
-        <v>820</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F111" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D112" t="s">
-        <v>667</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F112" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D113" t="s">
-        <v>998</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F113" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F114" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F115" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F116" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D117" t="s">
-        <v>662</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F117" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1111</v>
-      </c>
-      <c r="F118" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D119" t="s">
-        <v>758</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F119" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F120" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D121" t="s">
-        <v>601</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F121" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D122" t="s">
-        <v>643</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F122" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C123" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D123" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F123" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D124" t="s">
-        <v>625</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F124" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D125" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F125" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D126" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F126" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D127" t="s">
-        <v>652</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F127" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C128" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D128" t="s">
-        <v>936</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F128" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C129" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D129" t="s">
-        <v>643</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F129" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D130" t="s">
-        <v>643</v>
-      </c>
-      <c r="E130" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D131" t="s">
-        <v>662</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F131" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D132" t="s">
-        <v>667</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F132" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F133" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D134" t="s">
-        <v>662</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F134" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D135" t="s">
-        <v>620</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F135" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D136" t="s">
-        <v>878</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F136" t="s">
-        <v>1189</v>
+      <c r="E43" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="31">
+        <v>5090</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>1885</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="23" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="21">
+        <v>5110</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>1880</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>1879</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="26" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="31">
+        <v>5087</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>1870</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>1865</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="26" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25" t="s">
+        <v>1859</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="26" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="23" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>1852</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="21">
+        <v>5096</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>1850</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J50" s="19"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="23" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="21">
+        <v>5076</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>1844</v>
+      </c>
+      <c r="J51" s="19"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="33" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="31">
+        <v>5095</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>1840</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>1839</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="23" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="21">
+        <v>5120</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>1833</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="26" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25" t="s">
+        <v>1830</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="23" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="21">
+        <v>5073</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>1824</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>1823</v>
+      </c>
+      <c r="J55" s="19"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="33" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="31">
+        <v>5139</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>1812</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="23" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>1813</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="23" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="21">
+        <v>5120</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>1808</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J58" s="19"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="23" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="31">
+        <v>5095</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="23" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>1797</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>1796</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="23" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>1791</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="26" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25" t="s">
+        <v>1787</v>
+      </c>
+      <c r="J62" s="24" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="23" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>1783</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>1782</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="23" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="21">
+        <v>5120</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>1779</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J64" s="19"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="26" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25" t="s">
+        <v>1775</v>
+      </c>
+      <c r="J65" s="24" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="23" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="23" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="26" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J68" s="24" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="26" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J69" s="24" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="23" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>1755</v>
+      </c>
+      <c r="J70" s="27" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="26" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25" t="s">
+        <v>1751</v>
+      </c>
+      <c r="J71" s="24" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="23" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="21">
+        <v>5132</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="33" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="31">
+        <v>5095</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>1739</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>1738</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="23" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>1733</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="23" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="21">
+        <v>5240</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="26" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J76" s="24" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="23" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="33" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="31">
+        <v>5095</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H78" s="28" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="33" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F79" s="31">
+        <v>5098</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H79" s="28" t="s">
+        <v>1703</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="23" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" s="21">
+        <v>5076</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I80" s="20" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J80" s="19" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="26" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25" t="s">
+        <v>1693</v>
+      </c>
+      <c r="J81" s="24" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="23" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H82" s="28" t="s">
+        <v>1688</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>1687</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="26" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25" t="s">
+        <v>1683</v>
+      </c>
+      <c r="J83" s="24" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="26" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25" t="s">
+        <v>1679</v>
+      </c>
+      <c r="J84" s="24" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="26" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25" t="s">
+        <v>1675</v>
+      </c>
+      <c r="J85" s="24" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="23" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H86" s="28" t="s">
+        <v>1670</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J86" s="27" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="23" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E87" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" s="29">
+        <v>5095</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H87" s="28" t="s">
+        <v>1664</v>
+      </c>
+      <c r="I87" s="28" t="s">
+        <v>1663</v>
+      </c>
+      <c r="J87" s="27" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="26" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25" t="s">
+        <v>1659</v>
+      </c>
+      <c r="J88" s="24" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="23" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F89" s="21">
+        <v>5120</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I89" s="20" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J89" s="19" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="18" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="16">
+        <v>5095</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J90" s="14" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F92" s="8">
+        <v>5108</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" s="8">
+        <v>5108</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="J97" s="7"/>
+      <c r="K97" s="3" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F100" s="8">
+        <v>5501</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F101" s="5">
+        <v>5043</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="13" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F102" s="10">
+        <v>5094</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F104" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="5">
+        <v>5120</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="8">
+        <v>5241</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>1555</v>
+      </c>
+      <c r="J108" s="7"/>
+      <c r="K108" s="3" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="7" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" s="8">
+        <v>5110</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J109" s="7"/>
+      <c r="K109" s="3" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F113" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F114" s="10">
+        <v>5095</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F116" s="8">
+        <v>5120</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="7" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F118" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F119" s="8">
+        <v>5120</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J119" s="7"/>
+      <c r="K119" s="3" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F120" s="8">
+        <v>5008</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="7" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>1469</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" s="8">
+        <v>5070</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J124" s="7"/>
+      <c r="K124" s="3" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" s="5">
+        <v>5137</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K127" s="3"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="7" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="8">
+        <v>5034</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="J130" s="7"/>
+      <c r="K130" s="3" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K132" s="3"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="8">
+        <v>5134</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="13" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="10">
+        <v>5067</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F136" s="10">
+        <v>3502</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K137" s="3"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" s="12">
+        <v>5094</v>
+      </c>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K139" s="3"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="10">
+        <v>5120</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K145" s="3"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" s="8">
+        <v>5074</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F150" s="8">
+        <v>5120</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J150" s="7"/>
+      <c r="K150" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F152" s="8">
+        <v>5120</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J152" s="7"/>
+      <c r="K152" s="3" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" s="8">
+        <v>5120</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J153" s="7"/>
+      <c r="K153" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F155" s="8">
+        <v>5110</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J155" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B156" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B157" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B159" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" s="8">
+        <v>5110</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J159" s="7"/>
+      <c r="K159" s="3" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B160" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" s="8">
+        <v>5330</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J160" s="7"/>
+      <c r="K160" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F161" s="8">
+        <v>5120</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J161" s="7"/>
+      <c r="K161" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" s="5">
+        <v>5095</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>